--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H2">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I2">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J2">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.1908287964109</v>
+        <v>1.764494666666667</v>
       </c>
       <c r="N2">
-        <v>1.1908287964109</v>
+        <v>5.293483999999999</v>
       </c>
       <c r="O2">
-        <v>0.01038304575592476</v>
+        <v>0.0152564507897189</v>
       </c>
       <c r="P2">
-        <v>0.01038304575592476</v>
+        <v>0.0152564507897189</v>
       </c>
       <c r="Q2">
-        <v>7.269476332565795</v>
+        <v>18.31434124386533</v>
       </c>
       <c r="R2">
-        <v>7.269476332565795</v>
+        <v>164.829071194788</v>
       </c>
       <c r="S2">
-        <v>0.0001003785332017596</v>
+        <v>0.0002463456854798847</v>
       </c>
       <c r="T2">
-        <v>0.0001003785332017596</v>
+        <v>0.0002463456854798846</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H3">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I3">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J3">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>93.65730133134041</v>
+        <v>93.97803500000002</v>
       </c>
       <c r="N3">
-        <v>93.65730133134041</v>
+        <v>281.934105</v>
       </c>
       <c r="O3">
-        <v>0.8166144856680086</v>
+        <v>0.8125676395500474</v>
       </c>
       <c r="P3">
-        <v>0.8166144856680086</v>
+        <v>0.8125676395500474</v>
       </c>
       <c r="Q3">
-        <v>571.7358678696546</v>
+        <v>975.4327031599153</v>
       </c>
       <c r="R3">
-        <v>571.7358678696546</v>
+        <v>8778.894328439237</v>
       </c>
       <c r="S3">
-        <v>0.007894655016413663</v>
+        <v>0.01312051766972051</v>
       </c>
       <c r="T3">
-        <v>0.007894655016413663</v>
+        <v>0.01312051766972051</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H4">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I4">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J4">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.8416077780448</v>
+        <v>19.913116</v>
       </c>
       <c r="N4">
-        <v>19.8416077780448</v>
+        <v>59.73934800000001</v>
       </c>
       <c r="O4">
-        <v>0.1730024685760665</v>
+        <v>0.1721759096602337</v>
       </c>
       <c r="P4">
-        <v>0.1730024685760665</v>
+        <v>0.1721759096602337</v>
       </c>
       <c r="Q4">
-        <v>121.124126807545</v>
+        <v>206.685578903804</v>
       </c>
       <c r="R4">
-        <v>121.124126807545</v>
+        <v>1860.170210134236</v>
       </c>
       <c r="S4">
-        <v>0.001672508668859506</v>
+        <v>0.00278012186929844</v>
       </c>
       <c r="T4">
-        <v>0.001672508668859506</v>
+        <v>0.00278012186929844</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H5">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I5">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J5">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1908287964109</v>
+        <v>1.764494666666667</v>
       </c>
       <c r="N5">
-        <v>1.1908287964109</v>
+        <v>5.293483999999999</v>
       </c>
       <c r="O5">
-        <v>0.01038304575592476</v>
+        <v>0.0152564507897189</v>
       </c>
       <c r="P5">
-        <v>0.01038304575592476</v>
+        <v>0.0152564507897189</v>
       </c>
       <c r="Q5">
-        <v>711.1099014964464</v>
+        <v>1065.809847368884</v>
       </c>
       <c r="R5">
-        <v>711.1099014964464</v>
+        <v>9592.288626319951</v>
       </c>
       <c r="S5">
-        <v>0.009819162425454527</v>
+        <v>0.01433617807734398</v>
       </c>
       <c r="T5">
-        <v>0.009819162425454527</v>
+        <v>0.01433617807734398</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H6">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I6">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J6">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>93.65730133134041</v>
+        <v>93.97803500000002</v>
       </c>
       <c r="N6">
-        <v>93.65730133134041</v>
+        <v>281.934105</v>
       </c>
       <c r="O6">
-        <v>0.8166144856680086</v>
+        <v>0.8125676395500474</v>
       </c>
       <c r="P6">
-        <v>0.8166144856680086</v>
+        <v>0.8125676395500474</v>
       </c>
       <c r="Q6">
-        <v>55927.96758432744</v>
+        <v>56765.66613182034</v>
       </c>
       <c r="R6">
-        <v>55927.96758432744</v>
+        <v>510890.995186383</v>
       </c>
       <c r="S6">
-        <v>0.7722657168468792</v>
+        <v>0.7635533677548845</v>
       </c>
       <c r="T6">
-        <v>0.7722657168468792</v>
+        <v>0.7635533677548845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H7">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I7">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J7">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.8416077780448</v>
+        <v>19.913116</v>
       </c>
       <c r="N7">
-        <v>19.8416077780448</v>
+        <v>59.73934800000001</v>
       </c>
       <c r="O7">
-        <v>0.1730024685760665</v>
+        <v>0.1721759096602337</v>
       </c>
       <c r="P7">
-        <v>0.1730024685760665</v>
+        <v>0.1721759096602337</v>
       </c>
       <c r="Q7">
-        <v>11848.52414982078</v>
+        <v>12028.14353907495</v>
       </c>
       <c r="R7">
-        <v>11848.52414982078</v>
+        <v>108253.2918516746</v>
       </c>
       <c r="S7">
-        <v>0.1636070358241133</v>
+        <v>0.1617902181535683</v>
       </c>
       <c r="T7">
-        <v>0.1636070358241133</v>
+        <v>0.1617902181535683</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H8">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I8">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J8">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.1908287964109</v>
+        <v>1.764494666666667</v>
       </c>
       <c r="N8">
-        <v>1.1908287964109</v>
+        <v>5.293483999999999</v>
       </c>
       <c r="O8">
-        <v>0.01038304575592476</v>
+        <v>0.0152564507897189</v>
       </c>
       <c r="P8">
-        <v>0.01038304575592476</v>
+        <v>0.0152564507897189</v>
       </c>
       <c r="Q8">
-        <v>33.5673081315244</v>
+        <v>50.10247904271555</v>
       </c>
       <c r="R8">
-        <v>33.5673081315244</v>
+        <v>450.9223113844399</v>
       </c>
       <c r="S8">
-        <v>0.0004635047972684792</v>
+        <v>0.0006739270268950371</v>
       </c>
       <c r="T8">
-        <v>0.0004635047972684792</v>
+        <v>0.0006739270268950371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H9">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I9">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J9">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>93.65730133134041</v>
+        <v>93.97803500000002</v>
       </c>
       <c r="N9">
-        <v>93.65730133134041</v>
+        <v>281.934105</v>
       </c>
       <c r="O9">
-        <v>0.8166144856680086</v>
+        <v>0.8125676395500474</v>
       </c>
       <c r="P9">
-        <v>0.8166144856680086</v>
+        <v>0.8125676395500474</v>
       </c>
       <c r="Q9">
-        <v>2640.029786004054</v>
+        <v>2668.487821478117</v>
       </c>
       <c r="R9">
-        <v>2640.029786004054</v>
+        <v>24016.39039330305</v>
       </c>
       <c r="S9">
-        <v>0.03645411380471589</v>
+        <v>0.03589375412544239</v>
       </c>
       <c r="T9">
-        <v>0.03645411380471589</v>
+        <v>0.03589375412544239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H10">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I10">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J10">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.8416077780448</v>
+        <v>19.913116</v>
       </c>
       <c r="N10">
-        <v>19.8416077780448</v>
+        <v>59.73934800000001</v>
       </c>
       <c r="O10">
-        <v>0.1730024685760665</v>
+        <v>0.1721759096602337</v>
       </c>
       <c r="P10">
-        <v>0.1730024685760665</v>
+        <v>0.1721759096602337</v>
       </c>
       <c r="Q10">
-        <v>559.2990059678276</v>
+        <v>565.4290125738534</v>
       </c>
       <c r="R10">
-        <v>559.2990059678276</v>
+        <v>5088.86111316468</v>
       </c>
       <c r="S10">
-        <v>0.007722924083093793</v>
+        <v>0.007605569637366994</v>
       </c>
       <c r="T10">
-        <v>0.007722924083093793</v>
+        <v>0.007605569637366996</v>
       </c>
     </row>
   </sheetData>
